--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H2">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I2">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J2">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N2">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O2">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P2">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q2">
-        <v>10.92801109940292</v>
+        <v>29.56955103361199</v>
       </c>
       <c r="R2">
-        <v>10.92801109940292</v>
+        <v>266.125959302508</v>
       </c>
       <c r="S2">
-        <v>0.01882446962776105</v>
+        <v>0.02722275964059007</v>
       </c>
       <c r="T2">
-        <v>0.01882446962776105</v>
+        <v>0.03970831338483275</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H3">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I3">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J3">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N3">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P3">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q3">
-        <v>16.60699159332843</v>
+        <v>19.11852658810933</v>
       </c>
       <c r="R3">
-        <v>16.60699159332843</v>
+        <v>172.066739292984</v>
       </c>
       <c r="S3">
-        <v>0.02860701787484228</v>
+        <v>0.01760118215520825</v>
       </c>
       <c r="T3">
-        <v>0.02860701787484228</v>
+        <v>0.02567385769076957</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H4">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I4">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J4">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N4">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O4">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P4">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q4">
-        <v>0.9472101135264855</v>
+        <v>1.124665297252222</v>
       </c>
       <c r="R4">
-        <v>0.9472101135264855</v>
+        <v>10.12198767527</v>
       </c>
       <c r="S4">
-        <v>0.001631653541618534</v>
+        <v>0.001035406084739263</v>
       </c>
       <c r="T4">
-        <v>0.001631653541618534</v>
+        <v>0.001510288811134585</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H5">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I5">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J5">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N5">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O5">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P5">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q5">
-        <v>1.735165115887869</v>
+        <v>2.210628655003555</v>
       </c>
       <c r="R5">
-        <v>1.735165115887869</v>
+        <v>19.895657895032</v>
       </c>
       <c r="S5">
-        <v>0.002988976010919895</v>
+        <v>0.002035181814609095</v>
       </c>
       <c r="T5">
-        <v>0.002988976010919895</v>
+        <v>0.002968605621052269</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H6">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I6">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J6">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N6">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O6">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P6">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q6">
-        <v>4.16982866040895</v>
+        <v>4.692822051503333</v>
       </c>
       <c r="R6">
-        <v>4.16982866040895</v>
+        <v>28.15693230902</v>
       </c>
       <c r="S6">
-        <v>0.007182900187127791</v>
+        <v>0.004320375598497237</v>
       </c>
       <c r="T6">
-        <v>0.007182900187127791</v>
+        <v>0.004201259790711263</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H7">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I7">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J7">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N7">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O7">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P7">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q7">
-        <v>12.81827969989798</v>
+        <v>35.57765803879199</v>
       </c>
       <c r="R7">
-        <v>12.81827969989798</v>
+        <v>320.1989223491279</v>
       </c>
       <c r="S7">
-        <v>0.02208062516554906</v>
+        <v>0.03275403242559257</v>
       </c>
       <c r="T7">
-        <v>0.02208062516554906</v>
+        <v>0.04777647091418142</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H8">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I8">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J8">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N8">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P8">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q8">
-        <v>19.47957970401121</v>
+        <v>23.00313590774934</v>
       </c>
       <c r="R8">
-        <v>19.47957970401121</v>
+        <v>207.028223169744</v>
       </c>
       <c r="S8">
-        <v>0.03355530600803881</v>
+        <v>0.02117748893396011</v>
       </c>
       <c r="T8">
-        <v>0.03355530600803881</v>
+        <v>0.030890415901835</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H9">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I9">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J9">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N9">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O9">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P9">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q9">
-        <v>1.11105342585331</v>
+        <v>1.353181091868889</v>
       </c>
       <c r="R9">
-        <v>1.11105342585331</v>
+        <v>12.17862982682</v>
       </c>
       <c r="S9">
-        <v>0.001913888197911718</v>
+        <v>0.001245785692595219</v>
       </c>
       <c r="T9">
-        <v>0.001913888197911718</v>
+        <v>0.001817157751271965</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H10">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I10">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J10">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N10">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O10">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P10">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q10">
-        <v>2.035304647720558</v>
+        <v>2.659796567390222</v>
       </c>
       <c r="R10">
-        <v>2.035304647720558</v>
+        <v>23.938169106512</v>
       </c>
       <c r="S10">
-        <v>0.003505993009684068</v>
+        <v>0.002448701455244444</v>
       </c>
       <c r="T10">
-        <v>0.003505993009684068</v>
+        <v>0.003571783539012093</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H11">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I11">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J11">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N11">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O11">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P11">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q11">
-        <v>4.891103201084159</v>
+        <v>5.646335921553333</v>
       </c>
       <c r="R11">
-        <v>4.891103201084159</v>
+        <v>33.87801552932</v>
       </c>
       <c r="S11">
-        <v>0.008425359639329449</v>
+        <v>0.005198213712063253</v>
       </c>
       <c r="T11">
-        <v>0.008425359639329449</v>
+        <v>0.005054895287255021</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H12">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I12">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J12">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N12">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O12">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P12">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q12">
-        <v>160.7393666405823</v>
+        <v>501.1575820082279</v>
       </c>
       <c r="R12">
-        <v>160.7393666405823</v>
+        <v>3006.945492049368</v>
       </c>
       <c r="S12">
-        <v>0.276887834189381</v>
+        <v>0.4613831431380642</v>
       </c>
       <c r="T12">
-        <v>0.276887834189381</v>
+        <v>0.4486624838942617</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H13">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I13">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J13">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N13">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P13">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q13">
-        <v>244.271101688663</v>
+        <v>324.029084701544</v>
       </c>
       <c r="R13">
-        <v>244.271101688663</v>
+        <v>1944.174508209264</v>
       </c>
       <c r="S13">
-        <v>0.420778666204796</v>
+        <v>0.2983124728327345</v>
       </c>
       <c r="T13">
-        <v>0.420778666204796</v>
+        <v>0.2900877871858517</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H14">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I14">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J14">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N14">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O14">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P14">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q14">
-        <v>13.9324486714806</v>
+        <v>19.06131548290333</v>
       </c>
       <c r="R14">
-        <v>13.9324486714806</v>
+        <v>114.36789289742</v>
       </c>
       <c r="S14">
-        <v>0.02399988016766895</v>
+        <v>0.0175485116170582</v>
       </c>
       <c r="T14">
-        <v>0.02399988016766895</v>
+        <v>0.01706468675298052</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H15">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I15">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J15">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N15">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O15">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P15">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q15">
-        <v>25.52242482256335</v>
+        <v>37.46669370124533</v>
       </c>
       <c r="R15">
-        <v>25.52242482256335</v>
+        <v>224.800162207472</v>
       </c>
       <c r="S15">
-        <v>0.04396464338560278</v>
+        <v>0.03449314451873917</v>
       </c>
       <c r="T15">
-        <v>0.04396464338560278</v>
+        <v>0.03354214415343363</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H16">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I16">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J16">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N16">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O16">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P16">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q16">
-        <v>61.33372411293614</v>
+        <v>79.53598448123</v>
       </c>
       <c r="R16">
-        <v>61.33372411293614</v>
+        <v>318.14393792492</v>
       </c>
       <c r="S16">
-        <v>0.1056527867897686</v>
+        <v>0.07322360038030455</v>
       </c>
       <c r="T16">
-        <v>0.1056527867897686</v>
+        <v>0.0474698493214166</v>
       </c>
     </row>
   </sheetData>
